--- a/mobi_client/mobi_client/mobi_config/no_limit_state_excel/013_讯息表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/no_limit_state_excel/013_讯息表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D36E87-B901-426A-8A07-385F32C4D084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEB1701-46C0-42D9-BF21-5BE0DB48735E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26850" yWindow="0" windowWidth="13500" windowHeight="20835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24900" yWindow="1455" windowWidth="13500" windowHeight="16545" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contact|联系人表" sheetId="4" r:id="rId1"/>

--- a/mobi_client/mobi_client/mobi_config/no_limit_state_excel/013_讯息表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/no_limit_state_excel/013_讯息表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEB1701-46C0-42D9-BF21-5BE0DB48735E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6095A13-665D-4126-B281-905B5C0F1E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24900" yWindow="1455" windowWidth="13500" windowHeight="16545" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contact|联系人表" sheetId="4" r:id="rId1"/>
@@ -163,7 +163,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="82">
   <si>
     <t>角色id</t>
   </si>
@@ -205,12 +205,6 @@
   </si>
   <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>LimitState</t>
-  </si>
-  <si>
-    <t>IN:[0;1]</t>
   </si>
   <si>
     <t>凯瑟琳</t>
@@ -297,6 +291,9 @@
     <t>判定为不回复时间（S）</t>
   </si>
   <si>
+    <t>完成短信后获得的任务</t>
+  </si>
+  <si>
     <t>是否紧急</t>
   </si>
   <si>
@@ -327,6 +324,9 @@
     <t>endTime</t>
   </si>
   <si>
+    <t>quest</t>
+  </si>
+  <si>
     <t>urgent</t>
   </si>
   <si>
@@ -336,9 +336,6 @@
     <t>aint</t>
   </si>
   <si>
-    <t>IN:[0;1;2;3;4;5;10]</t>
-  </si>
-  <si>
     <t>询问凯瑟琳怎么加入的STS</t>
   </si>
   <si>
@@ -411,6 +408,18 @@
     <t>xt_wuliu_message</t>
   </si>
   <si>
+    <t>致命拥抱</t>
+  </si>
+  <si>
+    <t>xt_hug_start</t>
+  </si>
+  <si>
+    <t>迷醉金钞</t>
+  </si>
+  <si>
+    <t>xt_chat_mizui</t>
+  </si>
+  <si>
     <t>社畜支线</t>
   </si>
   <si>
@@ -421,19 +430,13 @@
   </si>
   <si>
     <t>chat_qiqiu</t>
-  </si>
-  <si>
-    <t>致命拥抱</t>
-  </si>
-  <si>
-    <t>xt_hug_start</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -485,14 +488,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -500,7 +495,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -528,12 +523,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,11 +567,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -601,37 +590,28 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -946,7 +926,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1016,13 +996,13 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>15</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1036,13 +1016,13 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>17</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1056,13 +1036,13 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1076,13 +1056,13 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>21</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1096,20 +1076,20 @@
         <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>23</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -1118,10 +1098,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet12"/>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1132,78 +1112,82 @@
     <col min="4" max="4" width="38.625" customWidth="1"/>
     <col min="5" max="5" width="17.875" customWidth="1"/>
     <col min="6" max="6" width="25" style="1" customWidth="1"/>
-    <col min="7" max="8" width="21.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1"/>
     <col min="9" max="9" width="10.375" style="1" customWidth="1"/>
     <col min="10" max="10" width="11.625" style="1" customWidth="1"/>
     <col min="11" max="11" width="10.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="23.125" customWidth="1"/>
-    <col min="13" max="13" width="7.75" style="1" customWidth="1"/>
-    <col min="14" max="14" width="21.25" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
+    <col min="12" max="13" width="23.125" customWidth="1"/>
+    <col min="14" max="14" width="7.75" style="1" customWidth="1"/>
+    <col min="15" max="15" width="21.25" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="O1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>10</v>
@@ -1212,25 +1196,28 @@
         <v>11</v>
       </c>
       <c r="I2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="N2" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="O2" s="11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -1267,132 +1254,145 @@
       <c r="L3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="M3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="16" t="s">
+      <c r="N3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="7"/>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="6">
+        <v>60</v>
+      </c>
       <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6">
         <v>11</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="10">
+      <c r="D5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="7">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L5" s="9">
+        <v>53</v>
+      </c>
+      <c r="G5" s="1">
+        <v>5</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2</v>
+      </c>
+      <c r="L5" s="6">
         <v>60</v>
       </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="M5" s="6"/>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>31</v>
+      </c>
+      <c r="L6" s="6">
+        <v>60</v>
+      </c>
+      <c r="M6" s="6"/>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="9">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="10">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" s="1">
+      <c r="H7" s="1">
+        <v>31</v>
+      </c>
+      <c r="L7" s="6">
+        <v>60</v>
+      </c>
+      <c r="M7" s="6"/>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
         <v>5</v>
-      </c>
-      <c r="H6" s="1">
-        <v>2</v>
-      </c>
-      <c r="L6" s="9">
-        <v>60</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
-        <v>3</v>
-      </c>
-      <c r="B7" s="9">
-        <v>11</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="10">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1">
-        <v>13</v>
-      </c>
-      <c r="L7" s="9">
-        <v>60</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
-        <v>4</v>
       </c>
       <c r="B8" s="1">
         <v>12</v>
@@ -1400,63 +1400,65 @@
       <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="10">
+      <c r="D8" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="7">
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G8" s="1">
+        <v>3</v>
+      </c>
+      <c r="H8" s="1">
         <v>2</v>
       </c>
-      <c r="H8" s="1">
+      <c r="L8" s="6">
+        <v>60</v>
+      </c>
+      <c r="M8" s="6"/>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
         <v>13</v>
       </c>
-      <c r="L8" s="9">
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="M8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="10">
+      <c r="E9" s="7">
         <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="1">
+        <v>4</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="6">
         <v>60</v>
       </c>
-      <c r="G9" s="1">
-        <v>3</v>
-      </c>
-      <c r="H9" s="1">
-        <v>2</v>
-      </c>
-      <c r="L9" s="9">
-        <v>60</v>
-      </c>
-      <c r="M9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="M9" s="6"/>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13</v>
@@ -1464,31 +1466,32 @@
       <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="10">
+      <c r="D10" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="7">
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G10" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H10" s="1">
-        <v>1</v>
-      </c>
-      <c r="L10" s="9">
+        <v>3</v>
+      </c>
+      <c r="L10" s="6">
         <v>60</v>
       </c>
-      <c r="M10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="M10" s="6"/>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13</v>
@@ -1496,159 +1499,173 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="10">
+      <c r="D11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="7">
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G11" s="1">
+        <v>10</v>
+      </c>
+      <c r="H11" s="1">
         <v>5</v>
       </c>
-      <c r="H11" s="1">
+      <c r="L11" s="6">
+        <v>60</v>
+      </c>
+      <c r="M11" s="6"/>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6">
+        <v>101</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="1">
         <v>3</v>
-      </c>
-      <c r="L11" s="9">
-        <v>60</v>
-      </c>
-      <c r="M11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="1">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1">
-        <v>13</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="10">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" s="1">
-        <v>10</v>
       </c>
       <c r="H12" s="1">
         <v>5</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="6">
         <v>60</v>
       </c>
-      <c r="M12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="M12" s="6"/>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6">
+        <v>101</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2</v>
+      </c>
+      <c r="H13" s="1">
+        <v>11</v>
+      </c>
+      <c r="L13" s="6">
+        <v>60</v>
+      </c>
+      <c r="M13" s="6"/>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6">
+        <v>101</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="1">
+        <v>4</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2</v>
+      </c>
+      <c r="L14" s="6">
+        <v>60</v>
+      </c>
+      <c r="M14" s="6"/>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>101</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="1">
         <v>10</v>
       </c>
-      <c r="B13" s="9">
-        <v>101</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="10">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" s="1">
-        <v>3</v>
-      </c>
-      <c r="H13" s="1">
+      <c r="H15" s="1">
         <v>5</v>
       </c>
-      <c r="L13" s="9">
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
         <v>60</v>
       </c>
-      <c r="M13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="1">
-        <v>11</v>
-      </c>
-      <c r="B14" s="9">
-        <v>101</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="10">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" s="1">
-        <v>2</v>
-      </c>
-      <c r="H14" s="1">
-        <v>11</v>
-      </c>
-      <c r="L14" s="9">
-        <v>60</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="1">
-        <v>12</v>
-      </c>
-      <c r="B15" s="9">
-        <v>101</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="10">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G15" s="1">
-        <v>4</v>
-      </c>
-      <c r="H15" s="1">
-        <v>2</v>
-      </c>
-      <c r="L15" s="9">
-        <v>60</v>
-      </c>
-      <c r="M15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
+      <c r="L15" s="6">
+        <v>999999</v>
+      </c>
+      <c r="M15" s="6">
+        <v>3004</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>101</v>
@@ -1656,153 +1673,161 @@
       <c r="C16" s="1">
         <v>0</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" s="10"/>
+      <c r="D16" t="s">
+        <v>74</v>
+      </c>
       <c r="F16" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G16" s="1">
         <v>10</v>
       </c>
       <c r="H16" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I16" s="1">
         <v>1</v>
       </c>
       <c r="J16" s="1">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="K16" s="1">
         <v>1</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L16" s="6">
         <v>999999</v>
       </c>
-      <c r="M16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M16" s="6">
+        <v>3009</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" s="1">
+        <v>10</v>
+      </c>
+      <c r="H17" s="1">
+        <v>11</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>20</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
+      <c r="L17" s="6">
+        <v>999999</v>
+      </c>
+      <c r="M17" s="6">
+        <v>3023</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
         <v>14</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B20" s="1">
         <v>101</v>
       </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G17" s="1">
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" s="1">
         <v>2</v>
       </c>
-      <c r="H17" s="1">
-        <v>13</v>
-      </c>
-      <c r="I17" s="1">
-        <v>1</v>
-      </c>
-      <c r="J17" s="1">
+      <c r="H20" s="1">
+        <v>31</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1">
         <v>300</v>
       </c>
-      <c r="K17" s="1">
-        <v>1</v>
-      </c>
-      <c r="L17" s="9">
+      <c r="K20" s="1">
+        <v>1</v>
+      </c>
+      <c r="L20" s="6">
         <v>999999</v>
       </c>
-      <c r="M17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A18" s="1">
-        <v>15</v>
-      </c>
-      <c r="B18" s="1">
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>14</v>
+      </c>
+      <c r="B21" s="1">
         <v>101</v>
       </c>
-      <c r="C18" s="1">
-        <v>0</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G18" s="1">
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" s="1">
         <v>2</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H21" s="1">
         <v>3002</v>
       </c>
-      <c r="I18" s="1">
-        <v>1</v>
-      </c>
-      <c r="J18" s="1">
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
         <v>600</v>
       </c>
-      <c r="K18" s="1">
-        <v>1</v>
-      </c>
-      <c r="L18" s="9">
+      <c r="K21" s="1">
+        <v>1</v>
+      </c>
+      <c r="L21" s="6">
         <v>999999</v>
       </c>
-      <c r="M18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A19" s="1">
-        <v>16</v>
-      </c>
-      <c r="B19" s="1">
-        <v>101</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0</v>
-      </c>
-      <c r="D19" t="s">
-        <v>79</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G19" s="1">
-        <v>10</v>
-      </c>
-      <c r="H19" s="1">
-        <v>8</v>
-      </c>
-      <c r="I19" s="1">
-        <v>1</v>
-      </c>
-      <c r="J19" s="1">
-        <v>20</v>
-      </c>
-      <c r="K19" s="1">
-        <v>1</v>
-      </c>
-      <c r="L19" s="9">
-        <v>999999</v>
-      </c>
-      <c r="M19" s="1">
+      <c r="M21" s="6">
+        <v>3003</v>
+      </c>
+      <c r="N21" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
@@ -1820,7 +1845,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
